--- a/server_version/count3.xlsx
+++ b/server_version/count3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>L</t>
   </si>
@@ -43,6 +43,9 @@
     <t>precision</t>
   </si>
   <si>
+    <t>f1-score</t>
+  </si>
+  <si>
     <t>len frequent</t>
   </si>
   <si>
@@ -61,19 +64,19 @@
     <t>number of activities</t>
   </si>
   <si>
+    <t>activities</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
     <t>error</t>
   </si>
   <si>
-    <t>activities</t>
-  </si>
-  <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>IV Antibiotics Release D ER Sepsis Triage IV Liquid CRP Leucocytes Release E Release C Release B Admission IC Admission NC Return ER ER Triage Release A LacticAcid</t>
+    <t>ValueError("('Leucocytes', 8) is not in list",)</t>
   </si>
 </sst>
 </file>
@@ -405,13 +408,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,8 +469,11 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>3</v>
       </c>
@@ -481,46 +487,16 @@
         <v>0.7</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.9045557179779598</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.1753412407041326</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1050</v>
-      </c>
-      <c r="L2">
-        <v>3386</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>798</v>
-      </c>
-      <c r="O2">
-        <v>15</v>
-      </c>
-      <c r="P2">
-        <v>1557.544413328171</v>
-      </c>
-      <c r="R2" t="s">
         <v>19</v>
       </c>
+      <c r="R2">
+        <v>1.558829069137573</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>3</v>
       </c>
@@ -534,43 +510,13 @@
         <v>0.7</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.9045557179779598</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0.1753412407041326</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1075</v>
-      </c>
-      <c r="L3">
-        <v>3386</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>798</v>
-      </c>
-      <c r="O3">
-        <v>15</v>
-      </c>
-      <c r="P3">
-        <v>1915.126084327698</v>
-      </c>
-      <c r="R3" t="s">
         <v>19</v>
+      </c>
+      <c r="R3">
+        <v>1.388288021087646</v>
+      </c>
+      <c r="S3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
